--- a/uploads/5a3adeba3e33240170cd61e5/5a6fde4efe8e563d907c1aa8/CB CRM Tabs.xlsx
+++ b/uploads/5a3adeba3e33240170cd61e5/5a6fde4efe8e563d907c1aa8/CB CRM Tabs.xlsx
@@ -253,9 +253,6 @@
     <t>Territory Maps</t>
   </si>
   <si>
-    <t>Sales Report</t>
-  </si>
-  <si>
     <t>http://media-exp2.licdn.com/mpr/mpr/AAEAAQAAAAAAAAhcAAAAJGY5NTU4ZWUyLTJiYzUtNGVmZS04OWVmLTYxM2Q5ZmRhYjhiOQ.jpg</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>Sheet Name</t>
+  </si>
+  <si>
+    <t>Sales Report Test</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,10 +843,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="2"/>
@@ -857,7 +857,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>7</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>7</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>7</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>8</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>8</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>8</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>8</v>
